--- a/documnets/外部設計（個人）/外部設計書_ヨッシーアイランド(鈴木).xlsx
+++ b/documnets/外部設計（個人）/外部設計書_ヨッシーアイランド(鈴木).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\外部設計（個人）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BD6E06-2010-41BB-B173-181AF443DDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A05FA9-04EC-48E5-96D4-4D4C341FEB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="84">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -882,6 +882,22 @@
     <t>futter</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>Label</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Checkbox</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Link</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -1708,24 +1724,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1756,9 +1754,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1776,6 +1771,27 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12596,146 +12612,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79" t="s">
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="80" t="s">
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="65"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="81"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="66" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66" t="s">
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="67" t="s">
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="69"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="85"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="78"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="79"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -17114,23 +17130,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
       <c r="N1" s="91"/>
       <c r="O1" s="91"/>
       <c r="P1" s="91"/>
@@ -17151,20 +17167,20 @@
       <c r="AC1" s="91"/>
       <c r="AD1" s="91"/>
       <c r="AE1" s="91"/>
-      <c r="AF1" s="80" t="s">
+      <c r="AF1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="65"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="81"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
+      <c r="A2" s="67"/>
       <c r="B2" s="90"/>
       <c r="C2" s="90"/>
       <c r="D2" s="90"/>
@@ -17173,12 +17189,12 @@
       <c r="G2" s="90"/>
       <c r="H2" s="90"/>
       <c r="I2" s="90"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="66" t="s">
+      <c r="J2" s="69"/>
+      <c r="K2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
       <c r="N2" s="95"/>
       <c r="O2" s="95"/>
       <c r="P2" s="95"/>
@@ -17212,21 +17228,21 @@
       <c r="AN2" s="98"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="76"/>
       <c r="N3" s="92"/>
       <c r="O3" s="93"/>
       <c r="P3" s="93"/>
@@ -21736,23 +21752,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
       <c r="N1" s="91"/>
       <c r="O1" s="91"/>
       <c r="P1" s="91"/>
@@ -21773,20 +21789,20 @@
       <c r="AC1" s="91"/>
       <c r="AD1" s="91"/>
       <c r="AE1" s="91"/>
-      <c r="AF1" s="80" t="s">
+      <c r="AF1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="65"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="81"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
+      <c r="A2" s="67"/>
       <c r="B2" s="90"/>
       <c r="C2" s="90"/>
       <c r="D2" s="90"/>
@@ -21795,12 +21811,12 @@
       <c r="G2" s="90"/>
       <c r="H2" s="90"/>
       <c r="I2" s="90"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="66" t="s">
+      <c r="J2" s="69"/>
+      <c r="K2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
       <c r="N2" s="95"/>
       <c r="O2" s="95"/>
       <c r="P2" s="95"/>
@@ -21834,21 +21850,21 @@
       <c r="AN2" s="98"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="76"/>
       <c r="N3" s="92"/>
       <c r="O3" s="93"/>
       <c r="P3" s="93"/>
@@ -26358,146 +26374,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79" t="s">
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="80" t="s">
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="65"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="81"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="66" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66" t="s">
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="67" t="s">
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="69"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="85"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="78"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="79"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -30921,146 +30937,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79" t="s">
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="80" t="s">
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="65"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="81"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="66" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66" t="s">
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="67" t="s">
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="69"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="85"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="78"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="79"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -35483,154 +35499,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79" t="s">
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79" t="s">
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79" t="s">
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="80" t="s">
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="65"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="81"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="66" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66" t="s">
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66" t="s">
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="66"/>
+      <c r="X2" s="82"/>
       <c r="Y2" s="87">
         <v>44350</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="67" t="s">
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="69"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="85"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="78"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="79"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -40061,8 +40077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC1814-85B7-4E75-AFED-55ABB6C3A9CC}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q80" sqref="Q80"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W83" sqref="W83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -40071,146 +40087,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79" t="s">
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="80" t="s">
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="65"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="81"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="66" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66" t="s">
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="67" t="s">
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="69"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="85"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="78"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="79"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -43289,7 +43305,9 @@
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
-      <c r="L79" s="16"/>
+      <c r="L79" s="16" t="s">
+        <v>80</v>
+      </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
       <c r="O79" s="16"/>
@@ -43337,7 +43355,9 @@
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
-      <c r="L80" s="16"/>
+      <c r="L80" s="16" t="s">
+        <v>80</v>
+      </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
       <c r="O80" s="16"/>
@@ -43385,7 +43405,9 @@
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
-      <c r="L81" s="16"/>
+      <c r="L81" s="16" t="s">
+        <v>80</v>
+      </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
       <c r="O81" s="16"/>
@@ -43433,7 +43455,9 @@
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
-      <c r="L82" s="16"/>
+      <c r="L82" s="16" t="s">
+        <v>80</v>
+      </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
       <c r="O82" s="16"/>
@@ -43481,10 +43505,14 @@
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
-      <c r="L83" s="16"/>
+      <c r="L83" s="16" t="s">
+        <v>81</v>
+      </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
-      <c r="O83" s="16"/>
+      <c r="O83" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>
       <c r="R83" s="19"/>
@@ -43529,7 +43557,9 @@
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
-      <c r="L84" s="16"/>
+      <c r="L84" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
       <c r="O84" s="16"/>
@@ -43577,7 +43607,9 @@
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
-      <c r="L85" s="16"/>
+      <c r="L85" s="16" t="s">
+        <v>80</v>
+      </c>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
       <c r="O85" s="16"/>
@@ -44657,152 +44689,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79" t="s">
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79" t="s">
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79" t="s">
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="80" t="s">
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="65"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="81"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="66" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66" t="s">
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="66"/>
+      <c r="X2" s="82"/>
       <c r="Y2" s="88">
         <v>44351</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="67" t="s">
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="69"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="85"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="78"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="79"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -49022,154 +49054,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79" t="s">
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79" t="s">
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79" t="s">
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="80" t="s">
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="65"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="81"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="66" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66" t="s">
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="66"/>
+      <c r="X2" s="82"/>
       <c r="Y2" s="89">
         <v>44351</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="67" t="s">
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="69"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="85"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84" t="s">
+      <c r="L3" s="75"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="78"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="79"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -53606,154 +53638,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79" t="s">
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79" t="s">
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79" t="s">
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="80" t="s">
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="65"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="81"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="66" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66" t="s">
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="66"/>
+      <c r="X2" s="82"/>
       <c r="Y2" s="89">
         <v>44351</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="67" t="s">
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="69"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="85"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84" t="s">
+      <c r="L3" s="75"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="78"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="79"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -58195,154 +58227,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="79" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79" t="s">
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79" t="s">
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79" t="s">
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="80" t="s">
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="65"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="81"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="66" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66" t="s">
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66" t="s">
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="66"/>
+      <c r="X2" s="82"/>
       <c r="Y2" s="87">
         <v>44350</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="67" t="s">
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="69"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="85"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="78"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="79"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>

--- a/documnets/外部設計（個人）/外部設計書_ヨッシーアイランド(鈴木).xlsx
+++ b/documnets/外部設計（個人）/外部設計書_ヨッシーアイランド(鈴木).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\外部設計（個人）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A05FA9-04EC-48E5-96D4-4D4C341FEB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C5AE4B-32A5-4730-8670-081BCF69EF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40077,7 +40077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BC1814-85B7-4E75-AFED-55ABB6C3A9CC}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W83" sqref="W83"/>
     </sheetView>
   </sheetViews>
